--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4610823372721</v>
+        <v>28.634464</v>
       </c>
       <c r="H2">
-        <v>25.4610823372721</v>
+        <v>85.903392</v>
       </c>
       <c r="I2">
-        <v>0.3380043247335364</v>
+        <v>0.3570833578723188</v>
       </c>
       <c r="J2">
-        <v>0.3380043247335364</v>
+        <v>0.3570833578723188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>2686.569679168105</v>
+        <v>3221.760672741887</v>
       </c>
       <c r="R2">
-        <v>2686.569679168105</v>
+        <v>28995.84605467699</v>
       </c>
       <c r="S2">
-        <v>0.106286391494558</v>
+        <v>0.1169559756041549</v>
       </c>
       <c r="T2">
-        <v>0.106286391494558</v>
+        <v>0.1169559756041549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4610823372721</v>
+        <v>28.634464</v>
       </c>
       <c r="H3">
-        <v>25.4610823372721</v>
+        <v>85.903392</v>
       </c>
       <c r="I3">
-        <v>0.3380043247335364</v>
+        <v>0.3570833578723188</v>
       </c>
       <c r="J3">
-        <v>0.3380043247335364</v>
+        <v>0.3570833578723188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>2703.343019700458</v>
+        <v>3044.257749356223</v>
       </c>
       <c r="R3">
-        <v>2703.343019700458</v>
+        <v>27398.31974420602</v>
       </c>
       <c r="S3">
-        <v>0.1069499804021218</v>
+        <v>0.1105122854341175</v>
       </c>
       <c r="T3">
-        <v>0.1069499804021218</v>
+        <v>0.1105122854341175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4610823372721</v>
+        <v>28.634464</v>
       </c>
       <c r="H4">
-        <v>25.4610823372721</v>
+        <v>85.903392</v>
       </c>
       <c r="I4">
-        <v>0.3380043247335364</v>
+        <v>0.3570833578723188</v>
       </c>
       <c r="J4">
-        <v>0.3380043247335364</v>
+        <v>0.3570833578723188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>3153.722638523653</v>
+        <v>3570.478715742741</v>
       </c>
       <c r="R4">
-        <v>3153.722638523653</v>
+        <v>32134.30844168467</v>
       </c>
       <c r="S4">
-        <v>0.1247679528368567</v>
+        <v>0.1296150968340464</v>
       </c>
       <c r="T4">
-        <v>0.1247679528368567</v>
+        <v>0.1296150968340464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.4112720311406</v>
+        <v>36.74939233333333</v>
       </c>
       <c r="H5">
-        <v>36.4112720311406</v>
+        <v>110.248177</v>
       </c>
       <c r="I5">
-        <v>0.483371729942466</v>
+        <v>0.4582797992710433</v>
       </c>
       <c r="J5">
-        <v>0.483371729942466</v>
+        <v>0.4582797992710433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>3841.9976858409</v>
+        <v>4134.798785362128</v>
       </c>
       <c r="R5">
-        <v>3841.9976858409</v>
+        <v>37213.18906825915</v>
       </c>
       <c r="S5">
-        <v>0.1519975727132145</v>
+        <v>0.1501009773818309</v>
       </c>
       <c r="T5">
-        <v>0.1519975727132145</v>
+        <v>0.1501009773818309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.4112720311406</v>
+        <v>36.74939233333333</v>
       </c>
       <c r="H6">
-        <v>36.4112720311406</v>
+        <v>110.248177</v>
       </c>
       <c r="I6">
-        <v>0.483371729942466</v>
+        <v>0.4582797992710433</v>
       </c>
       <c r="J6">
-        <v>0.483371729942466</v>
+        <v>0.4582797992710433</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>3865.984830491871</v>
+        <v>3906.992021742827</v>
       </c>
       <c r="R6">
-        <v>3865.984830491871</v>
+        <v>35162.92819568545</v>
       </c>
       <c r="S6">
-        <v>0.1529465550035229</v>
+        <v>0.1418311631421389</v>
       </c>
       <c r="T6">
-        <v>0.1529465550035229</v>
+        <v>0.1418311631421389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.4112720311406</v>
+        <v>36.74939233333333</v>
       </c>
       <c r="H7">
-        <v>36.4112720311406</v>
+        <v>110.248177</v>
       </c>
       <c r="I7">
-        <v>0.483371729942466</v>
+        <v>0.4582797992710433</v>
       </c>
       <c r="J7">
-        <v>0.483371729942466</v>
+        <v>0.4582797992710433</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>4510.061724043512</v>
+        <v>4582.342562537443</v>
       </c>
       <c r="R7">
-        <v>4510.061724043512</v>
+        <v>41241.08306283698</v>
       </c>
       <c r="S7">
-        <v>0.1784276022257285</v>
+        <v>0.1663476587470736</v>
       </c>
       <c r="T7">
-        <v>0.1784276022257285</v>
+        <v>0.1663476587470736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.4553277769095</v>
+        <v>14.80600233333333</v>
       </c>
       <c r="H8">
-        <v>13.4553277769095</v>
+        <v>44.418007</v>
       </c>
       <c r="I8">
-        <v>0.1786239453239976</v>
+        <v>0.1846368428566379</v>
       </c>
       <c r="J8">
-        <v>0.1786239453239976</v>
+        <v>0.1846368428566379</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>1419.761939020006</v>
+        <v>1665.873544483248</v>
       </c>
       <c r="R8">
-        <v>1419.761939020006</v>
+        <v>14992.86190034923</v>
       </c>
       <c r="S8">
-        <v>0.05616879191701427</v>
+        <v>0.06047434475087062</v>
       </c>
       <c r="T8">
-        <v>0.05616879191701427</v>
+        <v>0.06047434475087062</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.4553277769095</v>
+        <v>14.80600233333333</v>
       </c>
       <c r="H9">
-        <v>13.4553277769095</v>
+        <v>44.418007</v>
       </c>
       <c r="I9">
-        <v>0.1786239453239976</v>
+        <v>0.1846368428566379</v>
       </c>
       <c r="J9">
-        <v>0.1786239453239976</v>
+        <v>0.1846368428566379</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>1428.626086733245</v>
+        <v>1574.092231663087</v>
       </c>
       <c r="R9">
-        <v>1428.626086733245</v>
+        <v>14166.83008496779</v>
       </c>
       <c r="S9">
-        <v>0.05651947639075799</v>
+        <v>0.05714251036790991</v>
       </c>
       <c r="T9">
-        <v>0.05651947639075799</v>
+        <v>0.05714251036790993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4553277769095</v>
+        <v>14.80600233333333</v>
       </c>
       <c r="H10">
-        <v>13.4553277769095</v>
+        <v>44.418007</v>
       </c>
       <c r="I10">
-        <v>0.1786239453239976</v>
+        <v>0.1846368428566379</v>
       </c>
       <c r="J10">
-        <v>0.1786239453239976</v>
+        <v>0.1846368428566379</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>1666.636604708536</v>
+        <v>1846.184939812529</v>
       </c>
       <c r="R10">
-        <v>1666.636604708536</v>
+        <v>16615.66445831276</v>
       </c>
       <c r="S10">
-        <v>0.06593567701622532</v>
+        <v>0.06701998773785733</v>
       </c>
       <c r="T10">
-        <v>0.06593567701622532</v>
+        <v>0.06701998773785735</v>
       </c>
     </row>
   </sheetData>
